--- a/document/人材派遣データ.xlsx
+++ b/document/人材派遣データ.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiozaki_yukio\project01\temporary_staffing\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\temporary_staffing\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA960F67-363A-436A-B1D6-8E44CA536179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E65BC95-9F60-4AA2-B2FE-0DE307C7F473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B082FB4B-4907-4C6C-9440-3E3B8271EBB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{56B7D928-FA3B-4248-89D9-51C1A7939C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$520</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$519</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="586">
   <si>
     <t>山田静空</t>
     <rPh sb="0" eb="2">
@@ -61,10 +61,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>阿見</t>
-    <rPh sb="0" eb="2">
-      <t>アミ</t>
-    </rPh>
+    <t>35</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -118,10 +115,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>川越</t>
-    <rPh sb="0" eb="2">
-      <t>カワゴエ</t>
-    </rPh>
+    <t>23</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -329,18 +323,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>㈱ウィルオブ・ワーク
-（旧㈱ウィルオブ・ファクトリー）</t>
-    <rPh sb="12" eb="13">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇都宮</t>
-    <rPh sb="0" eb="3">
-      <t>ウツノミヤ</t>
-    </rPh>
+    <t>㈱ウィルオブ・ワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -391,6 +378,7 @@
   </si>
   <si>
     <t>㈱バイトレ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ドライバー交通費</t>
@@ -1339,10 +1327,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>群馬</t>
-    <rPh sb="0" eb="2">
-      <t>グンマ</t>
-    </rPh>
+    <t>05</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1398,10 +1383,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日光</t>
-    <rPh sb="0" eb="2">
-      <t>ニッコウ</t>
-    </rPh>
+    <t>17</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1503,10 +1485,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>川崎</t>
-    <rPh sb="0" eb="2">
-      <t>カワサキ</t>
-    </rPh>
+    <t>12</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1808,13 +1787,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>川口朝日</t>
-    <rPh sb="0" eb="2">
-      <t>カワグチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>アサヒ</t>
-    </rPh>
+    <t>21</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1861,10 +1834,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名古屋</t>
-    <rPh sb="0" eb="3">
-      <t>ナゴヤ</t>
-    </rPh>
+    <t>13</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1942,6 +1912,7 @@
   </si>
   <si>
     <t>㈱ジャパン・リリーフ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>桑山尚吾</t>
@@ -2077,10 +2048,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>川口弥平</t>
-    <rPh sb="0" eb="4">
-      <t>カワグチヤヘイ</t>
-    </rPh>
+    <t>38</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2466,11 +2434,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>足立</t>
-    <rPh sb="0" eb="2">
-      <t>アダチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>09</t>
   </si>
   <si>
     <t>村木久悦</t>
@@ -2550,9 +2514,6 @@
       <t>シワケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>￥2.4/個</t>
@@ -3048,6 +3009,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>福島荷降作業</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>㈱ライフサポート・エガワ東北（福島）</t>
     <rPh sb="12" eb="14">
       <t>トウホク</t>
@@ -3058,16 +3029,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>福島荷降作業</t>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>酒井一宏</t>
     <rPh sb="0" eb="4">
       <t>サカイカズヒロ</t>
@@ -3157,6 +3118,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>安藤久美子</t>
     <rPh sb="0" eb="5">
       <t>アンドウクミコ</t>
@@ -3171,10 +3136,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>千葉</t>
-    <rPh sb="0" eb="2">
-      <t>チバ</t>
-    </rPh>
+    <t>04</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3908,10 +3870,7 @@
     <t>益田あゆみ</t>
   </si>
   <si>
-    <t>栃木</t>
-    <rPh sb="0" eb="2">
-      <t>トチギ</t>
-    </rPh>
+    <t>02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3945,10 +3904,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戸田</t>
-    <rPh sb="0" eb="2">
-      <t>トダ</t>
-    </rPh>
+    <t>03</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5354,9 +5310,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部署</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
+    <t>部門</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5372,7 +5328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5411,28 +5367,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5447,16 +5388,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5771,47 +5707,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFCD0EE-C441-4DEF-B19E-E940793F93F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C0CB5F-DB71-4D90-A4DF-16B119AE88CF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F520"/>
+  <dimension ref="A1:F519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G496" sqref="G496"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>582</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>581</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>580</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>579</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B2" t="s">
@@ -5831,7 +5765,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B3" t="s">
@@ -5851,7 +5785,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B4" t="s">
@@ -5871,7 +5805,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B5" t="s">
@@ -5891,7 +5825,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B6" t="s">
@@ -5904,14 +5838,14 @@
         <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6">
         <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B7" t="s">
@@ -5931,7 +5865,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B8" t="s">
@@ -5951,7 +5885,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B9" t="s">
@@ -5971,7 +5905,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B10" t="s">
@@ -5991,7 +5925,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B11" t="s">
@@ -6004,14 +5938,14 @@
         <v>566</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F11">
         <v>1650</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B12" t="s">
@@ -6031,7 +5965,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B13" t="s">
@@ -6051,7 +5985,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B14" t="s">
@@ -6071,7 +6005,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B15" t="s">
@@ -6091,7 +6025,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B16" t="s">
@@ -6111,7 +6045,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B17" t="s">
@@ -6131,7 +6065,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B18" t="s">
@@ -6151,7 +6085,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B19" t="s">
@@ -6171,7 +6105,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B20" t="s">
@@ -6184,14 +6118,14 @@
         <v>566</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20">
         <v>1650</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B21" t="s">
@@ -6211,7 +6145,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B22" t="s">
@@ -6231,7 +6165,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B23" t="s">
@@ -6251,7 +6185,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B24" t="s">
@@ -6271,7 +6205,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B25" t="s">
@@ -6291,7 +6225,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B26" t="s">
@@ -6311,7 +6245,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B27" t="s">
@@ -6331,7 +6265,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B28" t="s">
@@ -6351,7 +6285,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B29" t="s">
@@ -6371,7 +6305,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B30" t="s">
@@ -6391,7 +6325,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B31" t="s">
@@ -6411,7 +6345,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B32" t="s">
@@ -6431,7 +6365,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B33" t="s">
@@ -6451,7 +6385,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B34" t="s">
@@ -6471,7 +6405,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B35" t="s">
@@ -6484,14 +6418,14 @@
         <v>546</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F35">
         <v>1650</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B36" t="s">
@@ -6511,7 +6445,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B37" t="s">
@@ -6531,7 +6465,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B38" t="s">
@@ -6551,7 +6485,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B39" t="s">
@@ -6571,7 +6505,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B40" t="s">
@@ -6591,7 +6525,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B41" t="s">
@@ -6611,7 +6545,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B42" t="s">
@@ -6631,7 +6565,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B43" t="s">
@@ -6651,7 +6585,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B44" t="s">
@@ -6664,14 +6598,14 @@
         <v>546</v>
       </c>
       <c r="E44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F44">
         <v>1650</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B45" t="s">
@@ -6691,7 +6625,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B46" t="s">
@@ -6711,7 +6645,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B47" t="s">
@@ -6731,7 +6665,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B48" t="s">
@@ -6751,7 +6685,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B49" t="s">
@@ -6771,7 +6705,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B50" t="s">
@@ -6791,7 +6725,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B51" t="s">
@@ -6811,7 +6745,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B52" t="s">
@@ -6831,7 +6765,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B53" t="s">
@@ -6851,7 +6785,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B54" t="s">
@@ -6871,7 +6805,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B55" t="s">
@@ -6891,7 +6825,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B56" t="s">
@@ -6911,7 +6845,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B57" t="s">
@@ -6931,7 +6865,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B58" t="s">
@@ -6951,7 +6885,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B59" t="s">
@@ -6971,7 +6905,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B60" t="s">
@@ -6991,7 +6925,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B61" t="s">
@@ -7011,7 +6945,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B62" t="s">
@@ -7031,7 +6965,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B63" t="s">
@@ -7051,7 +6985,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B64" t="s">
@@ -7071,7 +7005,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B65" t="s">
@@ -7091,7 +7025,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B66" t="s">
@@ -7111,7 +7045,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B67" t="s">
@@ -7131,7 +7065,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B68" t="s">
@@ -7151,7 +7085,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B69" t="s">
@@ -7171,7 +7105,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B70" t="s">
@@ -7191,7 +7125,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B71" t="s">
@@ -7204,14 +7138,14 @@
         <v>507</v>
       </c>
       <c r="E71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F71">
         <v>1650</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B72" t="s">
@@ -7231,7 +7165,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B73" t="s">
@@ -7251,7 +7185,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B74" t="s">
@@ -7271,7 +7205,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B75" t="s">
@@ -7291,7 +7225,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B76" t="s">
@@ -7311,7 +7245,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B77" t="s">
@@ -7331,7 +7265,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B78" t="s">
@@ -7351,7 +7285,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B79" t="s">
@@ -7371,7 +7305,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B80" t="s">
@@ -7391,7 +7325,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B81" t="s">
@@ -7411,7 +7345,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B82" t="s">
@@ -7431,7 +7365,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B83" t="s">
@@ -7451,7 +7385,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B84" t="s">
@@ -7471,7 +7405,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B85" t="s">
@@ -7491,7 +7425,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B86" t="s">
@@ -7504,14 +7438,14 @@
         <v>507</v>
       </c>
       <c r="E86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F86">
         <v>1650</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B87" t="s">
@@ -7531,7 +7465,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B88" t="s">
@@ -7551,7 +7485,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B89" t="s">
@@ -7571,7 +7505,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B90" t="s">
@@ -7591,7 +7525,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B91" t="s">
@@ -7611,7 +7545,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B92" t="s">
@@ -7624,14 +7558,14 @@
         <v>507</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F92">
         <v>1650</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B93" t="s">
@@ -7651,7 +7585,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B94" t="s">
@@ -7671,7 +7605,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B95" t="s">
@@ -7691,7 +7625,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B96" t="s">
@@ -7711,7 +7645,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B97" t="s">
@@ -7731,7 +7665,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B98" t="s">
@@ -7751,7 +7685,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B99" t="s">
@@ -7771,7 +7705,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B100" t="s">
@@ -7791,7 +7725,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B101" t="s">
@@ -7811,7 +7745,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B102" t="s">
@@ -7831,7 +7765,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B103" t="s">
@@ -7851,7 +7785,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B104" t="s">
@@ -7871,7 +7805,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B105" t="s">
@@ -7891,7 +7825,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B106" t="s">
@@ -7904,14 +7838,14 @@
         <v>512</v>
       </c>
       <c r="E106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F106">
         <v>1650</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B107" t="s">
@@ -7931,7 +7865,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B108" t="s">
@@ -7944,14 +7878,14 @@
         <v>507</v>
       </c>
       <c r="E108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F108">
         <v>1650</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B109" t="s">
@@ -7971,7 +7905,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B110" t="s">
@@ -7991,7 +7925,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B111" t="s">
@@ -8011,7 +7945,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B112" t="s">
@@ -8031,7 +7965,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B113" t="s">
@@ -8051,7 +7985,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B114" t="s">
@@ -8071,7 +8005,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B115" t="s">
@@ -8091,7 +8025,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B116" t="s">
@@ -8111,7 +8045,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B117" t="s">
@@ -8131,7 +8065,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B118" t="s">
@@ -8151,7 +8085,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B119" t="s">
@@ -8171,7 +8105,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B120" t="s">
@@ -8191,7 +8125,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B121" t="s">
@@ -8211,7 +8145,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B122" t="s">
@@ -8231,7 +8165,7 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B123" t="s">
@@ -8251,7 +8185,7 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B124" t="s">
@@ -8271,7 +8205,7 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B125" t="s">
@@ -8291,7 +8225,7 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B126" t="s">
@@ -8311,7 +8245,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B127" t="s">
@@ -8331,7 +8265,7 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B128" t="s">
@@ -8351,7 +8285,7 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B129" t="s">
@@ -8371,7 +8305,7 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B130" t="s">
@@ -8391,7 +8325,7 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B131" t="s">
@@ -8411,7 +8345,7 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B132" t="s">
@@ -8431,7 +8365,7 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B133" t="s">
@@ -8451,7 +8385,7 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B134" t="s">
@@ -8471,7 +8405,7 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B135" t="s">
@@ -8484,14 +8418,14 @@
         <v>492</v>
       </c>
       <c r="E135" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F135">
         <v>1450</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B136" t="s">
@@ -8511,7 +8445,7 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B137" t="s">
@@ -8531,7 +8465,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B138" t="s">
@@ -8544,14 +8478,14 @@
         <v>489</v>
       </c>
       <c r="E138" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F138">
         <v>1450</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B139" t="s">
@@ -8571,7 +8505,7 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B140" t="s">
@@ -8591,7 +8525,7 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B141" t="s">
@@ -8611,7 +8545,7 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B142" t="s">
@@ -8631,7 +8565,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B143" t="s">
@@ -8651,7 +8585,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B144" t="s">
@@ -8671,7 +8605,7 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B145" t="s">
@@ -8691,7 +8625,7 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B146" t="s">
@@ -8711,7 +8645,7 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B147" t="s">
@@ -8731,7 +8665,7 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B148" t="s">
@@ -8751,7 +8685,7 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B149" t="s">
@@ -8771,7 +8705,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B150" t="s">
@@ -8791,7 +8725,7 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B151" t="s">
@@ -8811,7 +8745,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B152" t="s">
@@ -8831,7 +8765,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B153" t="s">
@@ -8851,7 +8785,7 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B154" t="s">
@@ -8871,7 +8805,7 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B155" t="s">
@@ -8891,7 +8825,7 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B156" t="s">
@@ -8911,7 +8845,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B157" t="s">
@@ -8931,7 +8865,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B158" t="s">
@@ -8951,7 +8885,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B159" t="s">
@@ -8971,7 +8905,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B160" t="s">
@@ -8991,7 +8925,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B161" t="s">
@@ -9011,7 +8945,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B162" t="s">
@@ -9031,7 +8965,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B163" t="s">
@@ -9051,7 +8985,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B164" t="s">
@@ -9071,7 +9005,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B165" t="s">
@@ -9091,7 +9025,7 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B166" t="s">
@@ -9111,7 +9045,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B167" t="s">
@@ -9131,7 +9065,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B168" t="s">
@@ -9151,7 +9085,7 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B169" t="s">
@@ -9171,7 +9105,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B170" t="s">
@@ -9191,7 +9125,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B171" t="s">
@@ -9211,7 +9145,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B172" t="s">
@@ -9231,7 +9165,7 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B173" t="s">
@@ -9251,7 +9185,7 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B174" t="s">
@@ -9271,14 +9205,14 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B175" t="s">
         <v>445</v>
       </c>
       <c r="C175" t="s">
-        <v>302</v>
+        <v>584</v>
       </c>
       <c r="D175" t="s">
         <v>444</v>
@@ -9291,7 +9225,7 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B176" t="s">
@@ -9311,7 +9245,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B177" t="s">
@@ -9331,7 +9265,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B178" t="s">
@@ -9351,7 +9285,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B179" t="s">
@@ -9371,7 +9305,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B180" t="s">
@@ -9391,7 +9325,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B181" t="s">
@@ -9411,7 +9345,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B182" t="s">
@@ -9431,7 +9365,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B183" t="s">
@@ -9451,7 +9385,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B184" t="s">
@@ -9471,7 +9405,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B185" t="s">
@@ -9491,7 +9425,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B186" t="s">
@@ -9511,7 +9445,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B187" t="s">
@@ -9531,7 +9465,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B188" t="s">
@@ -9551,7 +9485,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B189" t="s">
@@ -9571,7 +9505,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B190" t="s">
@@ -9591,7 +9525,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B191" t="s">
@@ -9611,7 +9545,7 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B192" t="s">
@@ -9631,7 +9565,7 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B193" t="s">
@@ -9651,7 +9585,7 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B194" t="s">
@@ -9671,7 +9605,7 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B195" t="s">
@@ -9691,7 +9625,7 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B196" t="s">
@@ -9711,7 +9645,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B197" t="s">
@@ -9731,7 +9665,7 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B198" t="s">
@@ -9751,7 +9685,7 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B199" t="s">
@@ -9771,7 +9705,7 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B200" t="s">
@@ -9791,7 +9725,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B201" t="s">
@@ -9811,7 +9745,7 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B202" t="s">
@@ -9831,7 +9765,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B203" t="s">
@@ -9851,7 +9785,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B204" t="s">
@@ -9871,7 +9805,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B205" t="s">
@@ -9891,7 +9825,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B206" t="s">
@@ -9911,7 +9845,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B207" t="s">
@@ -9931,7 +9865,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B208" t="s">
@@ -9951,7 +9885,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B209" t="s">
@@ -9971,7 +9905,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B210" t="s">
@@ -9991,7 +9925,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B211" t="s">
@@ -10011,7 +9945,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B212" t="s">
@@ -10031,7 +9965,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B213" t="s">
@@ -10051,7 +9985,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B214" t="s">
@@ -10071,7 +10005,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B215" t="s">
@@ -10091,7 +10025,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B216" t="s">
@@ -10111,7 +10045,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B217" t="s">
@@ -10131,7 +10065,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B218" t="s">
@@ -10151,7 +10085,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B219" t="s">
@@ -10171,7 +10105,7 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B220" t="s">
@@ -10191,7 +10125,7 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B221" t="s">
@@ -10211,7 +10145,7 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B222" t="s">
@@ -10231,7 +10165,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B223" t="s">
@@ -10251,7 +10185,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B224" t="s">
@@ -10271,7 +10205,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B225" t="s">
@@ -10291,7 +10225,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B226" t="s">
@@ -10311,7 +10245,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B227" t="s">
@@ -10331,7 +10265,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B228" t="s">
@@ -10351,7 +10285,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B229" t="s">
@@ -10371,7 +10305,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B230" t="s">
@@ -10391,7 +10325,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B231" t="s">
@@ -10411,7 +10345,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B232" t="s">
@@ -10431,7 +10365,7 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B233" t="s">
@@ -10451,7 +10385,7 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B234" t="s">
@@ -10471,7 +10405,7 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B235" t="s">
@@ -10491,7 +10425,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B236" t="s">
@@ -10511,7 +10445,7 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B237" t="s">
@@ -10531,7 +10465,7 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B238" t="s">
@@ -10551,7 +10485,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B239" t="s">
@@ -10571,7 +10505,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B240" t="s">
@@ -10591,7 +10525,7 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B241" t="s">
@@ -10606,12 +10540,9 @@
       <c r="E241" t="s">
         <v>584</v>
       </c>
-      <c r="F241" t="s">
-        <v>584</v>
-      </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B242" t="s">
@@ -10631,20 +10562,20 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" t="s">
-        <v>291</v>
+      <c r="A243" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B243" t="s">
+        <v>359</v>
+      </c>
+      <c r="C243" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>584</v>
+      </c>
+      <c r="E243" t="s">
         <v>360</v>
-      </c>
-      <c r="C243" t="s">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s">
-        <v>584</v>
-      </c>
-      <c r="E243" t="s">
-        <v>361</v>
       </c>
       <c r="F243">
         <v>1400</v>
@@ -10655,7 +10586,7 @@
         <v>291</v>
       </c>
       <c r="B244" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C244" t="s">
         <v>11</v>
@@ -10664,7 +10595,7 @@
         <v>584</v>
       </c>
       <c r="E244" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F244">
         <v>1400</v>
@@ -10675,7 +10606,7 @@
         <v>291</v>
       </c>
       <c r="B245" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C245" t="s">
         <v>11</v>
@@ -10684,7 +10615,7 @@
         <v>223</v>
       </c>
       <c r="E245" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F245">
         <v>1800</v>
@@ -10695,7 +10626,7 @@
         <v>291</v>
       </c>
       <c r="B246" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C246" t="s">
         <v>11</v>
@@ -10704,7 +10635,7 @@
         <v>223</v>
       </c>
       <c r="E246" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F246">
         <v>1750</v>
@@ -10715,16 +10646,16 @@
         <v>291</v>
       </c>
       <c r="B247" t="s">
+        <v>354</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s">
+        <v>353</v>
+      </c>
+      <c r="E247" t="s">
         <v>355</v>
-      </c>
-      <c r="C247" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s">
-        <v>354</v>
-      </c>
-      <c r="E247" t="s">
-        <v>356</v>
       </c>
       <c r="F247">
         <v>1750</v>
@@ -10735,16 +10666,16 @@
         <v>291</v>
       </c>
       <c r="B248" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
       </c>
       <c r="D248" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E248" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F248">
         <v>1950</v>
@@ -10755,16 +10686,16 @@
         <v>291</v>
       </c>
       <c r="B249" t="s">
+        <v>350</v>
+      </c>
+      <c r="C249" t="s">
+        <v>584</v>
+      </c>
+      <c r="D249" t="s">
+        <v>584</v>
+      </c>
+      <c r="E249" t="s">
         <v>351</v>
-      </c>
-      <c r="C249" t="s">
-        <v>584</v>
-      </c>
-      <c r="D249" t="s">
-        <v>584</v>
-      </c>
-      <c r="E249" t="s">
-        <v>352</v>
       </c>
       <c r="F249">
         <v>1800</v>
@@ -10775,7 +10706,7 @@
         <v>291</v>
       </c>
       <c r="B250" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C250" t="s">
         <v>584</v>
@@ -10784,7 +10715,7 @@
         <v>584</v>
       </c>
       <c r="E250" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F250">
         <v>1800</v>
@@ -10801,12 +10732,9 @@
         <v>584</v>
       </c>
       <c r="D251" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E251" t="s">
-        <v>584</v>
-      </c>
-      <c r="F251" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10815,19 +10743,19 @@
         <v>291</v>
       </c>
       <c r="B252" t="s">
-        <v>348</v>
+        <v>211</v>
       </c>
       <c r="C252" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D252" t="s">
-        <v>584</v>
+        <v>15</v>
       </c>
       <c r="E252" t="s">
-        <v>584</v>
-      </c>
-      <c r="F252" t="s">
-        <v>584</v>
+        <v>346</v>
+      </c>
+      <c r="F252">
+        <v>1650</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -10844,10 +10772,10 @@
         <v>15</v>
       </c>
       <c r="E253" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F253">
-        <v>1650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -10864,7 +10792,7 @@
         <v>15</v>
       </c>
       <c r="E254" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="F254">
         <v>1600</v>
@@ -10884,10 +10812,10 @@
         <v>15</v>
       </c>
       <c r="E255" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F255">
-        <v>1600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -10904,10 +10832,10 @@
         <v>15</v>
       </c>
       <c r="E256" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F256">
-        <v>1700</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -10924,10 +10852,10 @@
         <v>15</v>
       </c>
       <c r="E257" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F257">
-        <v>1650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -10944,10 +10872,10 @@
         <v>15</v>
       </c>
       <c r="E258" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F258">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -10964,7 +10892,7 @@
         <v>15</v>
       </c>
       <c r="E259" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F259">
         <v>1650</v>
@@ -10984,7 +10912,7 @@
         <v>15</v>
       </c>
       <c r="E260" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F260">
         <v>1650</v>
@@ -11004,10 +10932,10 @@
         <v>15</v>
       </c>
       <c r="E261" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F261">
-        <v>1650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -11024,10 +10952,10 @@
         <v>15</v>
       </c>
       <c r="E262" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="F262">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -11044,7 +10972,7 @@
         <v>15</v>
       </c>
       <c r="E263" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F263">
         <v>1650</v>
@@ -11064,7 +10992,7 @@
         <v>15</v>
       </c>
       <c r="E264" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="F264">
         <v>1650</v>
@@ -11084,7 +11012,7 @@
         <v>15</v>
       </c>
       <c r="E265" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F265">
         <v>1650</v>
@@ -11098,16 +11026,16 @@
         <v>211</v>
       </c>
       <c r="C266" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D266" t="s">
         <v>15</v>
       </c>
       <c r="E266" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F266">
-        <v>1650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -11124,7 +11052,7 @@
         <v>15</v>
       </c>
       <c r="E267" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F267">
         <v>1600</v>
@@ -11144,10 +11072,10 @@
         <v>15</v>
       </c>
       <c r="E268" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F268">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -11164,10 +11092,10 @@
         <v>15</v>
       </c>
       <c r="E269" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F269">
-        <v>1650</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -11184,10 +11112,10 @@
         <v>15</v>
       </c>
       <c r="E270" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F270">
-        <v>1710</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -11204,7 +11132,7 @@
         <v>15</v>
       </c>
       <c r="E271" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F271">
         <v>1650</v>
@@ -11224,10 +11152,10 @@
         <v>15</v>
       </c>
       <c r="E272" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F272">
-        <v>1650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -11244,10 +11172,10 @@
         <v>15</v>
       </c>
       <c r="E273" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F273">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -11264,7 +11192,7 @@
         <v>15</v>
       </c>
       <c r="E274" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F274">
         <v>1650</v>
@@ -11284,7 +11212,7 @@
         <v>15</v>
       </c>
       <c r="E275" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F275">
         <v>1650</v>
@@ -11304,7 +11232,7 @@
         <v>15</v>
       </c>
       <c r="E276" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F276">
         <v>1650</v>
@@ -11324,7 +11252,7 @@
         <v>15</v>
       </c>
       <c r="E277" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F277">
         <v>1650</v>
@@ -11344,7 +11272,7 @@
         <v>15</v>
       </c>
       <c r="E278" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F278">
         <v>1650</v>
@@ -11364,7 +11292,7 @@
         <v>15</v>
       </c>
       <c r="E279" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F279">
         <v>1650</v>
@@ -11384,7 +11312,7 @@
         <v>15</v>
       </c>
       <c r="E280" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F280">
         <v>1650</v>
@@ -11398,16 +11326,16 @@
         <v>211</v>
       </c>
       <c r="C281" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="D281" t="s">
         <v>15</v>
       </c>
       <c r="E281" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F281">
-        <v>1650</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -11418,16 +11346,16 @@
         <v>211</v>
       </c>
       <c r="C282" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="D282" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="E282" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F282">
-        <v>1600</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -11444,10 +11372,10 @@
         <v>223</v>
       </c>
       <c r="E283" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F283">
-        <v>1460</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -11464,10 +11392,10 @@
         <v>223</v>
       </c>
       <c r="E284" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F284">
-        <v>1410</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -11481,13 +11409,13 @@
         <v>11</v>
       </c>
       <c r="D285" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="E285" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F285">
-        <v>1460</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -11504,10 +11432,10 @@
         <v>283</v>
       </c>
       <c r="E286" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F286">
-        <v>1610</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -11524,7 +11452,7 @@
         <v>283</v>
       </c>
       <c r="E287" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F287">
         <v>1460</v>
@@ -11544,7 +11472,7 @@
         <v>283</v>
       </c>
       <c r="E288" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F288">
         <v>1460</v>
@@ -11564,7 +11492,7 @@
         <v>283</v>
       </c>
       <c r="E289" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F289">
         <v>1460</v>
@@ -11584,10 +11512,10 @@
         <v>283</v>
       </c>
       <c r="E290" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F290">
-        <v>1460</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -11604,10 +11532,10 @@
         <v>283</v>
       </c>
       <c r="E291" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F291">
-        <v>1410</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -11624,7 +11552,7 @@
         <v>283</v>
       </c>
       <c r="E292" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F292">
         <v>1460</v>
@@ -11644,7 +11572,7 @@
         <v>283</v>
       </c>
       <c r="E293" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F293">
         <v>1460</v>
@@ -11664,7 +11592,7 @@
         <v>283</v>
       </c>
       <c r="E294" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F294">
         <v>1460</v>
@@ -11684,7 +11612,7 @@
         <v>283</v>
       </c>
       <c r="E295" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F295">
         <v>1460</v>
@@ -11704,7 +11632,7 @@
         <v>283</v>
       </c>
       <c r="E296" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F296">
         <v>1460</v>
@@ -11724,7 +11652,7 @@
         <v>283</v>
       </c>
       <c r="E297" t="s">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="F297">
         <v>1460</v>
@@ -11744,7 +11672,7 @@
         <v>283</v>
       </c>
       <c r="E298" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="F298">
         <v>1460</v>
@@ -11758,16 +11686,16 @@
         <v>211</v>
       </c>
       <c r="C299" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D299" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="E299" t="s">
-        <v>305</v>
-      </c>
-      <c r="F299">
-        <v>1460</v>
+        <v>584</v>
+      </c>
+      <c r="F299" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -11778,16 +11706,16 @@
         <v>211</v>
       </c>
       <c r="C300" t="s">
-        <v>302</v>
+        <v>584</v>
       </c>
       <c r="D300" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E300" t="s">
         <v>584</v>
       </c>
       <c r="F300" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -11795,19 +11723,19 @@
         <v>291</v>
       </c>
       <c r="B301" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="C301" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="D301" t="s">
-        <v>301</v>
+        <v>584</v>
       </c>
       <c r="E301" t="s">
-        <v>584</v>
-      </c>
-      <c r="F301" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="F301">
+        <v>1970</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -11824,10 +11752,10 @@
         <v>584</v>
       </c>
       <c r="E302" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F302">
-        <v>1970</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -11835,19 +11763,19 @@
         <v>291</v>
       </c>
       <c r="B303" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D303" t="s">
-        <v>584</v>
+        <v>296</v>
       </c>
       <c r="E303" t="s">
-        <v>297</v>
+        <v>584</v>
       </c>
       <c r="F303">
-        <v>1940</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -11861,13 +11789,13 @@
         <v>584</v>
       </c>
       <c r="D304" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E304" t="s">
         <v>584</v>
       </c>
       <c r="F304">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -11875,19 +11803,19 @@
         <v>291</v>
       </c>
       <c r="B305" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C305" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D305" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="E305" t="s">
-        <v>584</v>
+        <v>293</v>
       </c>
       <c r="F305">
-        <v>5000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -11895,19 +11823,19 @@
         <v>291</v>
       </c>
       <c r="B306" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D306" t="s">
         <v>15</v>
       </c>
       <c r="E306" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F306">
-        <v>1800</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -11924,54 +11852,54 @@
         <v>15</v>
       </c>
       <c r="E307" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F307">
         <v>1950</v>
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" t="s">
-        <v>291</v>
+      <c r="A308" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B308" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C308" t="s">
         <v>584</v>
       </c>
       <c r="D308" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="E308" t="s">
-        <v>290</v>
-      </c>
-      <c r="F308">
-        <v>1950</v>
+        <v>584</v>
+      </c>
+      <c r="F308" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" t="s">
+      <c r="A309" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B309" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C309" t="s">
         <v>584</v>
       </c>
       <c r="D309" t="s">
-        <v>288</v>
+        <v>584</v>
       </c>
       <c r="E309" t="s">
-        <v>584</v>
-      </c>
-      <c r="F309" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="F309">
+        <v>2300</v>
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B310" t="s">
@@ -11984,34 +11912,34 @@
         <v>584</v>
       </c>
       <c r="E310" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F310">
-        <v>2300</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B311" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C311" t="s">
         <v>584</v>
       </c>
       <c r="D311" t="s">
-        <v>584</v>
+        <v>283</v>
       </c>
       <c r="E311" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F311">
-        <v>1900</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B312" t="s">
@@ -12021,97 +11949,97 @@
         <v>584</v>
       </c>
       <c r="D312" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E312" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F312">
-        <v>1700</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B313" t="s">
         <v>279</v>
       </c>
       <c r="C313" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D313" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c r="E313" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F313">
-        <v>1750</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B314" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D314" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="E314" t="s">
-        <v>278</v>
-      </c>
-      <c r="F314">
-        <v>1900</v>
+        <v>276</v>
+      </c>
+      <c r="F314" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B315" t="s">
         <v>147</v>
       </c>
       <c r="C315" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D315" t="s">
-        <v>277</v>
+        <v>584</v>
       </c>
       <c r="E315" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F315" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B316" t="s">
         <v>147</v>
       </c>
       <c r="C316" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D316" t="s">
         <v>584</v>
       </c>
       <c r="E316" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F316" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B317" t="s">
@@ -12124,54 +12052,54 @@
         <v>584</v>
       </c>
       <c r="E317" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F317" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B318" t="s">
         <v>147</v>
       </c>
       <c r="C318" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D318" t="s">
         <v>584</v>
       </c>
       <c r="E318" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F318" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B319" t="s">
         <v>147</v>
       </c>
       <c r="C319" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D319" t="s">
         <v>584</v>
       </c>
       <c r="E319" t="s">
-        <v>270</v>
-      </c>
-      <c r="F319" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="F319">
+        <v>1600</v>
       </c>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B320" t="s">
@@ -12181,37 +12109,37 @@
         <v>584</v>
       </c>
       <c r="D320" t="s">
-        <v>584</v>
+        <v>267</v>
       </c>
       <c r="E320" t="s">
-        <v>268</v>
+        <v>584</v>
       </c>
       <c r="F320">
         <v>1600</v>
       </c>
     </row>
     <row r="321" spans="1:6">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B321" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="C321" t="s">
         <v>584</v>
       </c>
       <c r="D321" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E321" t="s">
         <v>584</v>
       </c>
-      <c r="F321">
-        <v>1600</v>
+      <c r="F321" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B322" t="s">
@@ -12221,57 +12149,57 @@
         <v>584</v>
       </c>
       <c r="D322" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E322" t="s">
         <v>584</v>
       </c>
       <c r="F322" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B323" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C323" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D323" t="s">
-        <v>263</v>
+        <v>584</v>
       </c>
       <c r="E323" t="s">
-        <v>584</v>
-      </c>
-      <c r="F323" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="F323">
+        <v>1900</v>
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B324" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C324" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D324" t="s">
         <v>584</v>
       </c>
       <c r="E324" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F324">
         <v>1900</v>
       </c>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B325" t="s">
@@ -12284,34 +12212,34 @@
         <v>584</v>
       </c>
       <c r="E325" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F325">
-        <v>1900</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B326" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="C326" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D326" t="s">
-        <v>584</v>
+        <v>254</v>
       </c>
       <c r="E326" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F326">
-        <v>1650</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B327" t="s">
@@ -12324,14 +12252,14 @@
         <v>254</v>
       </c>
       <c r="E327" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F327">
         <v>2000</v>
       </c>
     </row>
     <row r="328" spans="1:6">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B328" t="s">
@@ -12344,14 +12272,14 @@
         <v>254</v>
       </c>
       <c r="E328" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F328">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B329" t="s">
@@ -12361,77 +12289,77 @@
         <v>11</v>
       </c>
       <c r="D329" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E329" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F329">
         <v>1800</v>
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B330" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="C330" t="s">
         <v>11</v>
       </c>
       <c r="D330" t="s">
-        <v>252</v>
+        <v>584</v>
       </c>
       <c r="E330" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F330">
-        <v>1800</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B331" t="s">
         <v>27</v>
       </c>
       <c r="C331" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D331" t="s">
         <v>584</v>
       </c>
       <c r="E331" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F331">
         <v>1720</v>
       </c>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B332" t="s">
         <v>27</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D332" t="s">
         <v>584</v>
       </c>
       <c r="E332" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F332">
         <v>1720</v>
       </c>
     </row>
     <row r="333" spans="1:6">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B333" t="s">
@@ -12444,18 +12372,18 @@
         <v>584</v>
       </c>
       <c r="E333" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F333">
         <v>1720</v>
       </c>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B334" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="C334" t="s">
         <v>11</v>
@@ -12464,14 +12392,14 @@
         <v>584</v>
       </c>
       <c r="E334" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F334">
-        <v>1720</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B335" t="s">
@@ -12484,18 +12412,18 @@
         <v>584</v>
       </c>
       <c r="E335" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F335">
         <v>1800</v>
       </c>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B336" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C336" t="s">
         <v>11</v>
@@ -12504,34 +12432,34 @@
         <v>584</v>
       </c>
       <c r="E336" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F336">
         <v>1800</v>
       </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B337" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C337" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D337" t="s">
         <v>584</v>
       </c>
       <c r="E337" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F337">
-        <v>1800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B338" t="s">
@@ -12544,38 +12472,38 @@
         <v>584</v>
       </c>
       <c r="E338" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F338">
         <v>1600</v>
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" t="s">
-        <v>241</v>
+      <c r="A339" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B339" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C339" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D339" t="s">
-        <v>584</v>
+        <v>15</v>
       </c>
       <c r="E339" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F339">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B340" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C340" t="s">
         <v>11</v>
@@ -12584,14 +12512,14 @@
         <v>15</v>
       </c>
       <c r="E340" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F340">
-        <v>1800</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B341" t="s">
@@ -12601,17 +12529,17 @@
         <v>11</v>
       </c>
       <c r="D341" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="E341" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F341">
         <v>1900</v>
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" t="s">
+      <c r="A342" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B342" t="s">
@@ -12621,17 +12549,17 @@
         <v>11</v>
       </c>
       <c r="D342" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E342" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F342">
         <v>1900</v>
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B343" t="s">
@@ -12641,17 +12569,17 @@
         <v>11</v>
       </c>
       <c r="D343" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E343" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F343">
         <v>1900</v>
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B344" t="s">
@@ -12664,14 +12592,14 @@
         <v>231</v>
       </c>
       <c r="E344" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F344">
         <v>1900</v>
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B345" t="s">
@@ -12684,14 +12612,14 @@
         <v>231</v>
       </c>
       <c r="E345" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F345">
         <v>1900</v>
       </c>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B346" t="s">
@@ -12701,17 +12629,17 @@
         <v>11</v>
       </c>
       <c r="D346" t="s">
-        <v>231</v>
+        <v>584</v>
       </c>
       <c r="E346" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F346">
         <v>1900</v>
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B347" t="s">
@@ -12724,14 +12652,14 @@
         <v>584</v>
       </c>
       <c r="E347" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F347">
         <v>1900</v>
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B348" t="s">
@@ -12744,14 +12672,14 @@
         <v>584</v>
       </c>
       <c r="E348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F348">
         <v>1900</v>
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B349" t="s">
@@ -12764,54 +12692,54 @@
         <v>584</v>
       </c>
       <c r="E349" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F349">
         <v>1900</v>
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B350" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C350" t="s">
         <v>11</v>
       </c>
       <c r="D350" t="s">
-        <v>584</v>
+        <v>223</v>
       </c>
       <c r="E350" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F350">
         <v>1900</v>
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B351" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C351" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D351" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
       <c r="E351" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F351">
-        <v>1900</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B352" t="s">
@@ -12824,14 +12752,14 @@
         <v>584</v>
       </c>
       <c r="E352" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F352">
-        <v>1850</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B353" t="s">
@@ -12844,14 +12772,14 @@
         <v>584</v>
       </c>
       <c r="E353" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F353">
-        <v>1900</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B354" t="s">
@@ -12864,14 +12792,14 @@
         <v>584</v>
       </c>
       <c r="E354" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F354">
         <v>1850</v>
       </c>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B355" t="s">
@@ -12884,114 +12812,114 @@
         <v>584</v>
       </c>
       <c r="E355" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F355">
         <v>1850</v>
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" t="s">
-        <v>217</v>
+      <c r="A356" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B356" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C356" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D356" t="s">
         <v>584</v>
       </c>
       <c r="E356" t="s">
-        <v>215</v>
+        <v>584</v>
       </c>
       <c r="F356">
-        <v>1850</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B357" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C357" t="s">
         <v>11</v>
       </c>
       <c r="D357" t="s">
-        <v>584</v>
+        <v>213</v>
       </c>
       <c r="E357" t="s">
-        <v>584</v>
+        <v>208</v>
       </c>
       <c r="F357">
-        <v>350000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B358" t="s">
+        <v>211</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>584</v>
+      </c>
+      <c r="E358" t="s">
+        <v>210</v>
+      </c>
+      <c r="F358">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B359" t="s">
         <v>206</v>
       </c>
-      <c r="C358" t="s">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s">
-        <v>213</v>
-      </c>
-      <c r="E358" t="s">
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s">
+        <v>209</v>
+      </c>
+      <c r="E359" t="s">
         <v>208</v>
       </c>
-      <c r="F358">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" t="s">
-        <v>212</v>
-      </c>
-      <c r="B359" t="s">
-        <v>211</v>
-      </c>
-      <c r="C359" t="s">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s">
-        <v>584</v>
-      </c>
-      <c r="E359" t="s">
-        <v>210</v>
-      </c>
       <c r="F359">
-        <v>1460</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B360" t="s">
         <v>206</v>
       </c>
       <c r="C360" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D360" t="s">
-        <v>209</v>
+        <v>584</v>
       </c>
       <c r="E360" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F360">
         <v>1900</v>
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B361" t="s">
@@ -13004,34 +12932,34 @@
         <v>584</v>
       </c>
       <c r="E361" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F361">
         <v>1900</v>
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B362" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
+        <v>584</v>
       </c>
       <c r="D362" t="s">
-        <v>584</v>
+        <v>204</v>
       </c>
       <c r="E362" t="s">
-        <v>205</v>
-      </c>
-      <c r="F362">
-        <v>1900</v>
+        <v>584</v>
+      </c>
+      <c r="F362" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" t="s">
+      <c r="A363" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B363" t="s">
@@ -13041,17 +12969,17 @@
         <v>584</v>
       </c>
       <c r="D363" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E363" t="s">
         <v>584</v>
       </c>
       <c r="F363" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B364" t="s">
@@ -13061,17 +12989,17 @@
         <v>584</v>
       </c>
       <c r="D364" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E364" t="s">
         <v>584</v>
       </c>
       <c r="F364" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B365" t="s">
@@ -13081,17 +13009,17 @@
         <v>584</v>
       </c>
       <c r="D365" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E365" t="s">
         <v>584</v>
       </c>
       <c r="F365" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="366" spans="1:6">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B366" t="s">
@@ -13101,17 +13029,17 @@
         <v>584</v>
       </c>
       <c r="D366" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E366" t="s">
         <v>584</v>
       </c>
       <c r="F366" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B367" t="s">
@@ -13121,17 +13049,17 @@
         <v>584</v>
       </c>
       <c r="D367" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E367" t="s">
         <v>584</v>
       </c>
       <c r="F367" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B368" t="s">
@@ -13141,17 +13069,17 @@
         <v>584</v>
       </c>
       <c r="D368" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E368" t="s">
         <v>584</v>
       </c>
       <c r="F368" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="369" spans="1:6">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B369" t="s">
@@ -13161,17 +13089,17 @@
         <v>584</v>
       </c>
       <c r="D369" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E369" t="s">
         <v>584</v>
       </c>
       <c r="F369" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="370" spans="1:6">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B370" t="s">
@@ -13181,17 +13109,17 @@
         <v>584</v>
       </c>
       <c r="D370" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E370" t="s">
         <v>584</v>
       </c>
       <c r="F370" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="371" spans="1:6">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B371" t="s">
@@ -13201,17 +13129,17 @@
         <v>584</v>
       </c>
       <c r="D371" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E371" t="s">
         <v>584</v>
       </c>
       <c r="F371" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="372" spans="1:6">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B372" t="s">
@@ -13221,17 +13149,17 @@
         <v>584</v>
       </c>
       <c r="D372" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E372" t="s">
         <v>584</v>
       </c>
       <c r="F372" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="373" spans="1:6">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B373" t="s">
@@ -13241,17 +13169,17 @@
         <v>584</v>
       </c>
       <c r="D373" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E373" t="s">
         <v>584</v>
       </c>
       <c r="F373" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="374" spans="1:6">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B374" t="s">
@@ -13261,17 +13189,17 @@
         <v>584</v>
       </c>
       <c r="D374" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E374" t="s">
         <v>584</v>
       </c>
       <c r="F374" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="375" spans="1:6">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B375" t="s">
@@ -13281,7 +13209,7 @@
         <v>584</v>
       </c>
       <c r="D375" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E375" t="s">
         <v>584</v>
@@ -13291,7 +13219,7 @@
       </c>
     </row>
     <row r="376" spans="1:6">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B376" t="s">
@@ -13301,17 +13229,17 @@
         <v>584</v>
       </c>
       <c r="D376" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E376" t="s">
         <v>584</v>
       </c>
       <c r="F376" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B377" t="s">
@@ -13321,17 +13249,17 @@
         <v>584</v>
       </c>
       <c r="D377" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E377" t="s">
         <v>584</v>
       </c>
       <c r="F377" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B378" t="s">
@@ -13347,11 +13275,11 @@
         <v>584</v>
       </c>
       <c r="F378" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="379" spans="1:6">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B379" t="s">
@@ -13367,11 +13295,11 @@
         <v>584</v>
       </c>
       <c r="F379" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="380" spans="1:6">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B380" t="s">
@@ -13381,17 +13309,17 @@
         <v>584</v>
       </c>
       <c r="D380" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E380" t="s">
         <v>584</v>
       </c>
-      <c r="F380" t="s">
-        <v>174</v>
+      <c r="F380">
+        <v>10000</v>
       </c>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B381" t="s">
@@ -13407,31 +13335,31 @@
         <v>584</v>
       </c>
       <c r="F381">
-        <v>10000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="382" spans="1:6">
-      <c r="A382" t="s">
-        <v>173</v>
+      <c r="A382" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B382" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C382" t="s">
-        <v>584</v>
+        <v>11</v>
       </c>
       <c r="D382" t="s">
-        <v>172</v>
+        <v>584</v>
       </c>
       <c r="E382" t="s">
-        <v>584</v>
+        <v>171</v>
       </c>
       <c r="F382">
-        <v>1800</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="383" spans="1:6">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B383" t="s">
@@ -13444,14 +13372,14 @@
         <v>584</v>
       </c>
       <c r="E383" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F383">
         <v>1680</v>
       </c>
     </row>
     <row r="384" spans="1:6">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B384" t="s">
@@ -13464,34 +13392,34 @@
         <v>584</v>
       </c>
       <c r="E384" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F384">
         <v>1680</v>
       </c>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B385" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C385" t="s">
         <v>11</v>
       </c>
       <c r="D385" t="s">
-        <v>584</v>
+        <v>167</v>
       </c>
       <c r="E385" t="s">
-        <v>168</v>
-      </c>
-      <c r="F385">
-        <v>1680</v>
+        <v>584</v>
+      </c>
+      <c r="F385" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="386" spans="1:6">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B386" t="s">
@@ -13501,17 +13429,17 @@
         <v>11</v>
       </c>
       <c r="D386" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="E386" t="s">
         <v>584</v>
       </c>
       <c r="F386" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B387" t="s">
@@ -13521,37 +13449,37 @@
         <v>11</v>
       </c>
       <c r="D387" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="E387" t="s">
         <v>584</v>
       </c>
       <c r="F387" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B388" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C388" t="s">
         <v>11</v>
       </c>
       <c r="D388" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E388" t="s">
-        <v>584</v>
+        <v>160</v>
       </c>
       <c r="F388" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="389" spans="1:6">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B389" t="s">
@@ -13561,17 +13489,17 @@
         <v>11</v>
       </c>
       <c r="D389" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E389" t="s">
-        <v>160</v>
-      </c>
-      <c r="F389" t="s">
-        <v>159</v>
+        <v>584</v>
+      </c>
+      <c r="F389">
+        <v>1500</v>
       </c>
     </row>
     <row r="390" spans="1:6">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B390" t="s">
@@ -13581,37 +13509,37 @@
         <v>11</v>
       </c>
       <c r="D390" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E390" t="s">
         <v>584</v>
       </c>
       <c r="F390">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B391" t="s">
+        <v>153</v>
+      </c>
+      <c r="C391" t="s">
+        <v>584</v>
+      </c>
+      <c r="D391" t="s">
+        <v>152</v>
+      </c>
+      <c r="E391" t="s">
+        <v>155</v>
+      </c>
+      <c r="F391">
         <v>1500</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
-      <c r="A391" t="s">
-        <v>157</v>
-      </c>
-      <c r="B391" t="s">
-        <v>147</v>
-      </c>
-      <c r="C391" t="s">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s">
-        <v>156</v>
-      </c>
-      <c r="E391" t="s">
-        <v>584</v>
-      </c>
-      <c r="F391">
-        <v>1750</v>
-      </c>
-    </row>
     <row r="392" spans="1:6">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B392" t="s">
@@ -13624,14 +13552,14 @@
         <v>152</v>
       </c>
       <c r="E392" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F392">
         <v>1500</v>
       </c>
     </row>
     <row r="393" spans="1:6">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B393" t="s">
@@ -13644,34 +13572,34 @@
         <v>152</v>
       </c>
       <c r="E393" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F393">
         <v>1500</v>
       </c>
     </row>
     <row r="394" spans="1:6">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B394" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C394" t="s">
-        <v>584</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E394" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F394">
         <v>1500</v>
       </c>
     </row>
     <row r="395" spans="1:6">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B395" t="s">
@@ -13681,37 +13609,37 @@
         <v>23</v>
       </c>
       <c r="D395" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E395" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F395">
         <v>1500</v>
       </c>
     </row>
     <row r="396" spans="1:6">
-      <c r="A396" t="s">
-        <v>148</v>
+      <c r="A396" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B396" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C396" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D396" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E396" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F396">
-        <v>1500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B397" t="s">
@@ -13724,34 +13652,34 @@
         <v>142</v>
       </c>
       <c r="E397" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F397">
-        <v>1700</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B398" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C398" t="s">
         <v>11</v>
       </c>
       <c r="D398" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="E398" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F398">
-        <v>1550</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B399" t="s">
@@ -13767,11 +13695,11 @@
         <v>140</v>
       </c>
       <c r="F399">
-        <v>1710</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="400" spans="1:6">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B400" t="s">
@@ -13784,14 +13712,14 @@
         <v>20</v>
       </c>
       <c r="E400" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F400">
         <v>1695</v>
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B401" t="s">
@@ -13804,14 +13732,14 @@
         <v>20</v>
       </c>
       <c r="E401" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F401">
-        <v>1695</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B402" t="s">
@@ -13827,11 +13755,11 @@
         <v>138</v>
       </c>
       <c r="F402">
-        <v>1680</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="403" spans="1:6">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B403" t="s">
@@ -13844,14 +13772,14 @@
         <v>20</v>
       </c>
       <c r="E403" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F403">
-        <v>1780</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B404" t="s">
@@ -13867,11 +13795,11 @@
         <v>137</v>
       </c>
       <c r="F404">
-        <v>1695</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B405" t="s">
@@ -13884,14 +13812,14 @@
         <v>20</v>
       </c>
       <c r="E405" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F405">
-        <v>1710</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="406" spans="1:6">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B406" t="s">
@@ -13907,11 +13835,11 @@
         <v>136</v>
       </c>
       <c r="F406">
-        <v>1695</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="407" spans="1:6">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B407" t="s">
@@ -13927,11 +13855,11 @@
         <v>136</v>
       </c>
       <c r="F407">
-        <v>1710</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B408" t="s">
@@ -13944,14 +13872,14 @@
         <v>20</v>
       </c>
       <c r="E408" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F408">
-        <v>1780</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B409" t="s">
@@ -13964,14 +13892,14 @@
         <v>20</v>
       </c>
       <c r="E409" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F409">
         <v>1680</v>
       </c>
     </row>
     <row r="410" spans="1:6">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B410" t="s">
@@ -13981,17 +13909,17 @@
         <v>11</v>
       </c>
       <c r="D410" t="s">
-        <v>20</v>
+        <v>584</v>
       </c>
       <c r="E410" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F410">
         <v>1680</v>
       </c>
     </row>
     <row r="411" spans="1:6">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B411" t="s">
@@ -14001,17 +13929,17 @@
         <v>11</v>
       </c>
       <c r="D411" t="s">
-        <v>584</v>
+        <v>132</v>
       </c>
       <c r="E411" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F411">
-        <v>1680</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B412" t="s">
@@ -14021,17 +13949,17 @@
         <v>11</v>
       </c>
       <c r="D412" t="s">
-        <v>132</v>
+        <v>584</v>
       </c>
       <c r="E412" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F412">
-        <v>2149</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="413" spans="1:6">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B413" t="s">
@@ -14044,14 +13972,14 @@
         <v>584</v>
       </c>
       <c r="E413" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F413">
         <v>1695</v>
       </c>
     </row>
     <row r="414" spans="1:6">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B414" t="s">
@@ -14064,14 +13992,14 @@
         <v>584</v>
       </c>
       <c r="E414" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F414">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="415" spans="1:6">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B415" t="s">
@@ -14084,14 +14012,14 @@
         <v>584</v>
       </c>
       <c r="E415" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F415">
-        <v>1690</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="416" spans="1:6">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B416" t="s">
@@ -14104,14 +14032,14 @@
         <v>584</v>
       </c>
       <c r="E416" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F416">
-        <v>1965</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B417" t="s">
@@ -14124,14 +14052,14 @@
         <v>584</v>
       </c>
       <c r="E417" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F417">
-        <v>1580</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="418" spans="1:6">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B418" t="s">
@@ -14144,14 +14072,14 @@
         <v>584</v>
       </c>
       <c r="E418" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F418">
-        <v>1695</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="419" spans="1:6">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B419" t="s">
@@ -14164,14 +14092,14 @@
         <v>584</v>
       </c>
       <c r="E419" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F419">
-        <v>1580</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="420" spans="1:6">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B420" t="s">
@@ -14184,14 +14112,14 @@
         <v>584</v>
       </c>
       <c r="E420" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F420">
         <v>1695</v>
       </c>
     </row>
     <row r="421" spans="1:6">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B421" t="s">
@@ -14204,14 +14132,14 @@
         <v>584</v>
       </c>
       <c r="E421" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F421">
         <v>1695</v>
       </c>
     </row>
     <row r="422" spans="1:6">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B422" t="s">
@@ -14224,14 +14152,14 @@
         <v>584</v>
       </c>
       <c r="E422" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F422">
         <v>1695</v>
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B423" t="s">
@@ -14244,14 +14172,14 @@
         <v>584</v>
       </c>
       <c r="E423" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F423">
         <v>1695</v>
       </c>
     </row>
     <row r="424" spans="1:6">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B424" t="s">
@@ -14264,14 +14192,14 @@
         <v>584</v>
       </c>
       <c r="E424" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F424">
         <v>1695</v>
       </c>
     </row>
     <row r="425" spans="1:6">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B425" t="s">
@@ -14284,14 +14212,14 @@
         <v>584</v>
       </c>
       <c r="E425" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F425">
         <v>1695</v>
       </c>
     </row>
     <row r="426" spans="1:6">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B426" t="s">
@@ -14304,14 +14232,14 @@
         <v>584</v>
       </c>
       <c r="E426" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F426">
         <v>1695</v>
       </c>
     </row>
     <row r="427" spans="1:6">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B427" t="s">
@@ -14324,34 +14252,34 @@
         <v>584</v>
       </c>
       <c r="E427" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F427">
         <v>1695</v>
       </c>
     </row>
     <row r="428" spans="1:6">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B428" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C428" t="s">
         <v>11</v>
       </c>
       <c r="D428" t="s">
-        <v>584</v>
+        <v>20</v>
       </c>
       <c r="E428" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F428">
-        <v>1695</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="429" spans="1:6">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B429" t="s">
@@ -14364,14 +14292,14 @@
         <v>20</v>
       </c>
       <c r="E429" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F429">
         <v>1680</v>
       </c>
     </row>
     <row r="430" spans="1:6">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B430" t="s">
@@ -14384,18 +14312,18 @@
         <v>20</v>
       </c>
       <c r="E430" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F430">
-        <v>1680</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="431" spans="1:6">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B431" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C431" t="s">
         <v>11</v>
@@ -14411,7 +14339,7 @@
       </c>
     </row>
     <row r="432" spans="1:6">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B432" t="s">
@@ -14424,18 +14352,18 @@
         <v>20</v>
       </c>
       <c r="E432" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F432">
         <v>1500</v>
       </c>
     </row>
     <row r="433" spans="1:6">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B433" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C433" t="s">
         <v>11</v>
@@ -14444,18 +14372,18 @@
         <v>20</v>
       </c>
       <c r="E433" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F433">
-        <v>1500</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="434" spans="1:6">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B434" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C434" t="s">
         <v>11</v>
@@ -14464,14 +14392,14 @@
         <v>20</v>
       </c>
       <c r="E434" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F434">
-        <v>1540</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="435" spans="1:6">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B435" t="s">
@@ -14484,14 +14412,14 @@
         <v>20</v>
       </c>
       <c r="E435" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F435">
-        <v>1450</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="436" spans="1:6">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B436" t="s">
@@ -14504,14 +14432,14 @@
         <v>20</v>
       </c>
       <c r="E436" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F436">
-        <v>1460</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="437" spans="1:6">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B437" t="s">
@@ -14524,14 +14452,14 @@
         <v>20</v>
       </c>
       <c r="E437" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F437">
-        <v>1450</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="438" spans="1:6">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B438" t="s">
@@ -14544,14 +14472,14 @@
         <v>20</v>
       </c>
       <c r="E438" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F438">
-        <v>1460</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="439" spans="1:6">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B439" t="s">
@@ -14564,14 +14492,14 @@
         <v>20</v>
       </c>
       <c r="E439" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F439">
         <v>1430</v>
       </c>
     </row>
     <row r="440" spans="1:6">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B440" t="s">
@@ -14584,14 +14512,14 @@
         <v>20</v>
       </c>
       <c r="E440" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F440">
-        <v>1430</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="441" spans="1:6">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B441" t="s">
@@ -14604,14 +14532,14 @@
         <v>20</v>
       </c>
       <c r="E441" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F441">
-        <v>1390</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="442" spans="1:6">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B442" t="s">
@@ -14624,14 +14552,14 @@
         <v>20</v>
       </c>
       <c r="E442" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F442">
         <v>1420</v>
       </c>
     </row>
     <row r="443" spans="1:6">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B443" t="s">
@@ -14644,14 +14572,14 @@
         <v>20</v>
       </c>
       <c r="E443" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F443">
         <v>1420</v>
       </c>
     </row>
     <row r="444" spans="1:6">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B444" t="s">
@@ -14664,14 +14592,14 @@
         <v>20</v>
       </c>
       <c r="E444" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F444">
-        <v>1420</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="445" spans="1:6">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B445" t="s">
@@ -14684,14 +14612,14 @@
         <v>20</v>
       </c>
       <c r="E445" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F445">
         <v>1490</v>
       </c>
     </row>
     <row r="446" spans="1:6">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B446" t="s">
@@ -14704,14 +14632,14 @@
         <v>20</v>
       </c>
       <c r="E446" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F446">
-        <v>1490</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="447" spans="1:6">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B447" t="s">
@@ -14724,14 +14652,14 @@
         <v>20</v>
       </c>
       <c r="E447" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F447">
-        <v>1530</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="448" spans="1:6">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B448" t="s">
@@ -14744,14 +14672,14 @@
         <v>20</v>
       </c>
       <c r="E448" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F448">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="449" spans="1:6">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B449" t="s">
@@ -14764,14 +14692,14 @@
         <v>20</v>
       </c>
       <c r="E449" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F449">
         <v>1580</v>
       </c>
     </row>
     <row r="450" spans="1:6">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B450" t="s">
@@ -14784,14 +14712,14 @@
         <v>20</v>
       </c>
       <c r="E450" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F450">
-        <v>1580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="451" spans="1:6">
-      <c r="A451" t="s">
+      <c r="A451" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B451" t="s">
@@ -14804,14 +14732,14 @@
         <v>20</v>
       </c>
       <c r="E451" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F451">
         <v>1550</v>
       </c>
     </row>
     <row r="452" spans="1:6">
-      <c r="A452" t="s">
+      <c r="A452" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B452" t="s">
@@ -14824,14 +14752,14 @@
         <v>20</v>
       </c>
       <c r="E452" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F452">
         <v>1550</v>
       </c>
     </row>
     <row r="453" spans="1:6">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B453" t="s">
@@ -14844,14 +14772,14 @@
         <v>20</v>
       </c>
       <c r="E453" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F453">
         <v>1550</v>
       </c>
     </row>
     <row r="454" spans="1:6">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B454" t="s">
@@ -14864,14 +14792,14 @@
         <v>20</v>
       </c>
       <c r="E454" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F454">
         <v>1550</v>
       </c>
     </row>
     <row r="455" spans="1:6">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B455" t="s">
@@ -14884,14 +14812,14 @@
         <v>20</v>
       </c>
       <c r="E455" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F455">
         <v>1550</v>
       </c>
     </row>
     <row r="456" spans="1:6">
-      <c r="A456" t="s">
+      <c r="A456" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B456" t="s">
@@ -14904,14 +14832,14 @@
         <v>20</v>
       </c>
       <c r="E456" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F456">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="457" spans="1:6">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B457" t="s">
@@ -14924,14 +14852,14 @@
         <v>20</v>
       </c>
       <c r="E457" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F457">
-        <v>1580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="458" spans="1:6">
-      <c r="A458" t="s">
+      <c r="A458" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B458" t="s">
@@ -14944,14 +14872,14 @@
         <v>20</v>
       </c>
       <c r="E458" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F458">
         <v>1550</v>
       </c>
     </row>
     <row r="459" spans="1:6">
-      <c r="A459" t="s">
+      <c r="A459" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B459" t="s">
@@ -14964,14 +14892,14 @@
         <v>20</v>
       </c>
       <c r="E459" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F459">
-        <v>1550</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="460" spans="1:6">
-      <c r="A460" t="s">
+      <c r="A460" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B460" t="s">
@@ -14984,14 +14912,14 @@
         <v>20</v>
       </c>
       <c r="E460" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F460">
-        <v>1620</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="461" spans="1:6">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B461" t="s">
@@ -15004,14 +14932,14 @@
         <v>20</v>
       </c>
       <c r="E461" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F461">
-        <v>1580</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="462" spans="1:6">
-      <c r="A462" t="s">
+      <c r="A462" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B462" t="s">
@@ -15024,14 +14952,14 @@
         <v>20</v>
       </c>
       <c r="E462" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F462">
-        <v>1680</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="463" spans="1:6">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B463" t="s">
@@ -15044,14 +14972,14 @@
         <v>20</v>
       </c>
       <c r="E463" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F463">
-        <v>1600</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="464" spans="1:6">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B464" t="s">
@@ -15064,14 +14992,14 @@
         <v>20</v>
       </c>
       <c r="E464" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F464">
         <v>1630</v>
       </c>
     </row>
     <row r="465" spans="1:6">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B465" t="s">
@@ -15084,14 +15012,14 @@
         <v>20</v>
       </c>
       <c r="E465" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F465">
-        <v>1630</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="466" spans="1:6">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B466" t="s">
@@ -15104,14 +15032,14 @@
         <v>20</v>
       </c>
       <c r="E466" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F466">
         <v>1600</v>
       </c>
     </row>
     <row r="467" spans="1:6">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B467" t="s">
@@ -15124,14 +15052,14 @@
         <v>20</v>
       </c>
       <c r="E467" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F467">
         <v>1600</v>
       </c>
     </row>
     <row r="468" spans="1:6">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B468" t="s">
@@ -15144,14 +15072,14 @@
         <v>20</v>
       </c>
       <c r="E468" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F468">
-        <v>1600</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="469" spans="1:6">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B469" t="s">
@@ -15164,14 +15092,14 @@
         <v>20</v>
       </c>
       <c r="E469" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F469">
         <v>1680</v>
       </c>
     </row>
     <row r="470" spans="1:6">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B470" t="s">
@@ -15184,14 +15112,14 @@
         <v>20</v>
       </c>
       <c r="E470" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F470">
-        <v>1680</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="471" spans="1:6">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B471" t="s">
@@ -15204,14 +15132,14 @@
         <v>20</v>
       </c>
       <c r="E471" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F471">
         <v>1600</v>
       </c>
     </row>
     <row r="472" spans="1:6">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B472" t="s">
@@ -15221,17 +15149,17 @@
         <v>11</v>
       </c>
       <c r="D472" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E472" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F472">
-        <v>1600</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="473" spans="1:6">
-      <c r="A473" t="s">
+      <c r="A473" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B473" t="s">
@@ -15241,17 +15169,17 @@
         <v>11</v>
       </c>
       <c r="D473" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E473" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F473">
-        <v>2070</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="474" spans="1:6">
-      <c r="A474" t="s">
+      <c r="A474" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B474" t="s">
@@ -15264,14 +15192,14 @@
         <v>20</v>
       </c>
       <c r="E474" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F474">
         <v>1550</v>
       </c>
     </row>
     <row r="475" spans="1:6">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B475" t="s">
@@ -15284,14 +15212,14 @@
         <v>20</v>
       </c>
       <c r="E475" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F475">
         <v>1550</v>
       </c>
     </row>
     <row r="476" spans="1:6">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B476" t="s">
@@ -15304,14 +15232,14 @@
         <v>20</v>
       </c>
       <c r="E476" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F476">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="477" spans="1:6">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B477" t="s">
@@ -15324,14 +15252,14 @@
         <v>20</v>
       </c>
       <c r="E477" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F477">
-        <v>1580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="478" spans="1:6">
-      <c r="A478" t="s">
+      <c r="A478" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B478" t="s">
@@ -15344,14 +15272,14 @@
         <v>20</v>
       </c>
       <c r="E478" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F478">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="479" spans="1:6">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B479" t="s">
@@ -15364,14 +15292,14 @@
         <v>20</v>
       </c>
       <c r="E479" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F479">
-        <v>1580</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="480" spans="1:6">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B480" t="s">
@@ -15384,14 +15312,14 @@
         <v>20</v>
       </c>
       <c r="E480" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F480">
-        <v>1450</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="481" spans="1:6">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B481" t="s">
@@ -15404,14 +15332,14 @@
         <v>20</v>
       </c>
       <c r="E481" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F481">
-        <v>1580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="482" spans="1:6">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B482" t="s">
@@ -15424,14 +15352,14 @@
         <v>20</v>
       </c>
       <c r="E482" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F482">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="483" spans="1:6">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B483" t="s">
@@ -15444,14 +15372,14 @@
         <v>20</v>
       </c>
       <c r="E483" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F483">
-        <v>1580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="484" spans="1:6">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B484" t="s">
@@ -15464,14 +15392,14 @@
         <v>20</v>
       </c>
       <c r="E484" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F484">
         <v>1550</v>
       </c>
     </row>
     <row r="485" spans="1:6">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B485" t="s">
@@ -15484,14 +15412,14 @@
         <v>20</v>
       </c>
       <c r="E485" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F485">
         <v>1550</v>
       </c>
     </row>
     <row r="486" spans="1:6">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B486" t="s">
@@ -15504,14 +15432,14 @@
         <v>20</v>
       </c>
       <c r="E486" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F486">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="487" spans="1:6">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B487" t="s">
@@ -15531,7 +15459,7 @@
       </c>
     </row>
     <row r="488" spans="1:6">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B488" t="s">
@@ -15544,14 +15472,14 @@
         <v>20</v>
       </c>
       <c r="E488" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F488">
         <v>1580</v>
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B489" t="s">
@@ -15564,14 +15492,14 @@
         <v>20</v>
       </c>
       <c r="E489" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F489">
-        <v>1580</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="490" spans="1:6">
-      <c r="A490" t="s">
+      <c r="A490" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B490" t="s">
@@ -15584,34 +15512,34 @@
         <v>20</v>
       </c>
       <c r="E490" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F490">
-        <v>2250</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="491" spans="1:6">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B491" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C491" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D491" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E491" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F491">
-        <v>1530</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="492" spans="1:6">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B492" t="s">
@@ -15624,14 +15552,14 @@
         <v>45</v>
       </c>
       <c r="E492" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F492">
         <v>2300</v>
       </c>
     </row>
     <row r="493" spans="1:6">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B493" t="s">
@@ -15644,14 +15572,14 @@
         <v>45</v>
       </c>
       <c r="E493" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F493">
-        <v>2300</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="494" spans="1:6">
-      <c r="A494" t="s">
+      <c r="A494" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B494" t="s">
@@ -15664,14 +15592,14 @@
         <v>45</v>
       </c>
       <c r="E494" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F494">
         <v>2200</v>
       </c>
     </row>
     <row r="495" spans="1:6">
-      <c r="A495" t="s">
+      <c r="A495" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B495" t="s">
@@ -15681,17 +15609,14 @@
         <v>23</v>
       </c>
       <c r="D495" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E495" t="s">
-        <v>44</v>
-      </c>
-      <c r="F495">
-        <v>2200</v>
+        <v>584</v>
       </c>
     </row>
     <row r="496" spans="1:6">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B496" t="s">
@@ -15701,17 +15626,14 @@
         <v>23</v>
       </c>
       <c r="D496" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E496" t="s">
         <v>584</v>
       </c>
-      <c r="F496" t="s">
-        <v>584</v>
-      </c>
     </row>
     <row r="497" spans="1:6">
-      <c r="A497" t="s">
+      <c r="A497" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B497" t="s">
@@ -15721,60 +15643,57 @@
         <v>23</v>
       </c>
       <c r="D497" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E497" t="s">
         <v>584</v>
       </c>
-      <c r="F497" t="s">
-        <v>584</v>
-      </c>
     </row>
     <row r="498" spans="1:6">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B498" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C498" t="s">
         <v>23</v>
       </c>
       <c r="D498" t="s">
-        <v>40</v>
+        <v>584</v>
       </c>
       <c r="E498" t="s">
-        <v>584</v>
-      </c>
-      <c r="F498" t="s">
-        <v>584</v>
+        <v>38</v>
+      </c>
+      <c r="F498">
+        <v>1440</v>
       </c>
     </row>
     <row r="499" spans="1:6">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B499" t="s">
-        <v>39</v>
+      <c r="B499" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C499" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D499" t="s">
         <v>584</v>
       </c>
       <c r="E499" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F499">
-        <v>1440</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="500" spans="1:6">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C500" t="s">
@@ -15784,17 +15703,17 @@
         <v>584</v>
       </c>
       <c r="E500" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F500">
         <v>1665</v>
       </c>
     </row>
     <row r="501" spans="1:6">
-      <c r="A501" t="s">
+      <c r="A501" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C501" t="s">
@@ -15804,54 +15723,54 @@
         <v>584</v>
       </c>
       <c r="E501" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F501">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C502" t="s">
+        <v>11</v>
+      </c>
+      <c r="D502" t="s">
+        <v>584</v>
+      </c>
+      <c r="E502" t="s">
+        <v>32</v>
+      </c>
+      <c r="F502">
         <v>1665</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
-      <c r="A502" t="s">
-        <v>34</v>
-      </c>
-      <c r="B502" t="s">
-        <v>33</v>
-      </c>
-      <c r="C502" t="s">
-        <v>11</v>
-      </c>
-      <c r="D502" t="s">
-        <v>584</v>
-      </c>
-      <c r="E502" t="s">
-        <v>35</v>
-      </c>
-      <c r="F502">
-        <v>1700</v>
-      </c>
-    </row>
     <row r="503" spans="1:6">
-      <c r="A503" t="s">
-        <v>34</v>
+      <c r="A503" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B503" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C503" t="s">
         <v>11</v>
       </c>
       <c r="D503" t="s">
-        <v>584</v>
+        <v>30</v>
       </c>
       <c r="E503" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F503">
-        <v>1665</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="504" spans="1:6">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B504" t="s">
@@ -15864,14 +15783,14 @@
         <v>30</v>
       </c>
       <c r="E504" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F504">
         <v>1500</v>
       </c>
     </row>
     <row r="505" spans="1:6">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B505" t="s">
@@ -15881,17 +15800,17 @@
         <v>11</v>
       </c>
       <c r="D505" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E505" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F505">
-        <v>1500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="506" spans="1:6">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B506" t="s">
@@ -15904,34 +15823,34 @@
         <v>15</v>
       </c>
       <c r="E506" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F506">
         <v>1700</v>
       </c>
     </row>
     <row r="507" spans="1:6">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B507" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C507" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D507" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E507" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F507">
-        <v>1700</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="508" spans="1:6">
-      <c r="A508" t="s">
+      <c r="A508" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B508" t="s">
@@ -15944,34 +15863,34 @@
         <v>22</v>
       </c>
       <c r="E508" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F508">
         <v>1560</v>
       </c>
     </row>
     <row r="509" spans="1:6">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B509" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C509" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D509" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E509" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F509">
-        <v>1560</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="510" spans="1:6">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B510" t="s">
@@ -15981,17 +15900,17 @@
         <v>11</v>
       </c>
       <c r="D510" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E510" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F510">
-        <v>1450</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="511" spans="1:6">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B511" t="s">
@@ -16001,37 +15920,37 @@
         <v>11</v>
       </c>
       <c r="D511" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E511" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F511">
-        <v>1550</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="512" spans="1:6">
-      <c r="A512" t="s">
+      <c r="A512" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B512" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C512" t="s">
         <v>11</v>
       </c>
       <c r="D512" t="s">
-        <v>15</v>
+        <v>584</v>
       </c>
       <c r="E512" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F512">
-        <v>1730</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="513" spans="1:6">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B513" t="s">
@@ -16044,38 +15963,38 @@
         <v>584</v>
       </c>
       <c r="E513" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F513">
-        <v>1670</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="514" spans="1:6">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B514" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C514" t="s">
-        <v>11</v>
+        <v>584</v>
       </c>
       <c r="D514" t="s">
         <v>584</v>
       </c>
       <c r="E514" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F514">
-        <v>1850</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="515" spans="1:6">
-      <c r="A515" t="s">
-        <v>9</v>
+      <c r="A515" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B515" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C515" t="s">
         <v>584</v>
@@ -16084,14 +16003,14 @@
         <v>584</v>
       </c>
       <c r="E515" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F515">
-        <v>1500</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B516" t="s">
@@ -16104,14 +16023,14 @@
         <v>584</v>
       </c>
       <c r="E516" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F516">
         <v>2100</v>
       </c>
     </row>
     <row r="517" spans="1:6">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B517" t="s">
@@ -16124,14 +16043,14 @@
         <v>584</v>
       </c>
       <c r="E517" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F517">
         <v>2100</v>
       </c>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B518" t="s">
@@ -16144,14 +16063,14 @@
         <v>584</v>
       </c>
       <c r="E518" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F518">
         <v>2100</v>
       </c>
     </row>
     <row r="519" spans="1:6">
-      <c r="A519" t="s">
+      <c r="A519" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B519" t="s">
@@ -16164,34 +16083,14 @@
         <v>584</v>
       </c>
       <c r="E519" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F519">
         <v>2100</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
-      <c r="A520" t="s">
-        <v>2</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1</v>
-      </c>
-      <c r="C520" t="s">
-        <v>584</v>
-      </c>
-      <c r="D520" t="s">
-        <v>584</v>
-      </c>
-      <c r="E520" t="s">
-        <v>0</v>
-      </c>
-      <c r="F520">
-        <v>2100</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F520" xr:uid="{1EFCD0EE-C441-4DEF-B19E-E940793F93F8}"/>
+  <autoFilter ref="A1:F519" xr:uid="{54C87382-2181-4CF2-8C9E-FE4E823CF1DF}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
